--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Settings.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Settings.xlsx
@@ -5,27 +5,29 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excelens_JWS\Excelens_Trunk_Jul122017\src\com\proj\objectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_EXCL_JUL\Excelens_Trunk\src\com\proj\objectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="6915" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="6915" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Objects_SiteContents" sheetId="2" r:id="rId2"/>
-    <sheet name="Objects_App" sheetId="3" r:id="rId3"/>
+    <sheet name="Objects_Page" sheetId="4" r:id="rId3"/>
+    <sheet name="Objects_App" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Objects_App!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Objects_App!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Objects_Page!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Objects_SiteContents!$A$1:$G$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="214">
   <si>
     <t>textbox</t>
   </si>
@@ -502,12 +504,177 @@
   </si>
   <si>
     <t>.//*[@id='idHomePageNewItem']</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'createButton')]</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'nameInput')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page </t>
+  </si>
+  <si>
+    <t>Page View</t>
+  </si>
+  <si>
+    <t>.//*[@title='Title']</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>.//*[@title='Byline']</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>.//*[@title='Article Date']</t>
+  </si>
+  <si>
+    <t>Image Caption</t>
+  </si>
+  <si>
+    <t>Article Image</t>
+  </si>
+  <si>
+    <t>.//*[text()='Click here to insert a picture from SharePoint.']</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'PublishingPageContent_RichHtmlField_displayContent')]</t>
+  </si>
+  <si>
+    <t>.//*[@title='Click here to add new content']</t>
+  </si>
+  <si>
+    <t>Click here to add Content</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'PageStateActionButton')]</t>
+  </si>
+  <si>
+    <t>Browse</t>
+  </si>
+  <si>
+    <t>(.//*[@value='Browse...'])[1]</t>
+  </si>
+  <si>
+    <t>Add Image from Local</t>
+  </si>
+  <si>
+    <t>.//*[@id='AddNewItemLink']</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>.//*[@value='Insert']</t>
+  </si>
+  <si>
+    <t>Check Image</t>
+  </si>
+  <si>
+    <t>.//img[@alt='imageName']</t>
+  </si>
+  <si>
+    <t>Select Image</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'assetSelectedImage_AssetUrlInput')]</t>
+  </si>
+  <si>
+    <t>Browsed Image Path</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>(.//*[contains(@alt,'Browse for a valid choice')])[2]</t>
+  </si>
+  <si>
+    <t>Article Type</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'_DropDownChoice')]</t>
+  </si>
+  <si>
+    <t>Enable Likes</t>
+  </si>
+  <si>
+    <t>Enable Comments</t>
+  </si>
+  <si>
+    <t>Make Article featured?</t>
+  </si>
+  <si>
+    <t>(.//*[contains(@id,'_BooleanField')])[1]</t>
+  </si>
+  <si>
+    <t>(.//*[contains(@id,'_BooleanField')])[2]</t>
+  </si>
+  <si>
+    <t>(.//*[contains(@id,'_BooleanField')])[3]</t>
+  </si>
+  <si>
+    <t>Page-Save</t>
+  </si>
+  <si>
+    <t>.//*[@id='status_1_body']/a[text()='Check it in']</t>
+  </si>
+  <si>
+    <t>Check it in</t>
+  </si>
+  <si>
+    <t>.//*[@id='checkincomments']</t>
+  </si>
+  <si>
+    <t>Check it -Comments</t>
+  </si>
+  <si>
+    <t>Check it -Continue</t>
+  </si>
+  <si>
+    <t>.//*[@id='statechangedialog_okbutton']</t>
+  </si>
+  <si>
+    <t>.//*[@id='status_1_body']/a[text()='Publish it']</t>
+  </si>
+  <si>
+    <t>Publish it</t>
+  </si>
+  <si>
+    <t>Page-Tile</t>
+  </si>
+  <si>
+    <t>.//*[@class='tile tile--white']/descendant :: a[text()='tileName']</t>
+  </si>
+  <si>
+    <t>.//*[contains(@title,'Caption')]</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Documents Library</t>
+  </si>
+  <si>
+    <t>.//*[@title='Documents']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1131,7 +1298,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1220,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1260,7 +1427,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1271,46 +1438,103 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1319,12 +1543,12 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1333,135 +1557,180 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1470,40 +1739,40 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -1512,564 +1781,44 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="B56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="B61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="B62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="B68" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="B75" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>153</v>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A73:G73"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C45 C50:C57 C74:C77 C23:C29 C61:C70 C3:C10 C12:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6 C8:C9 C16 C21:C31">
       <formula1>"id,name,xpath"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2083,7 +1832,906 @@
           <x14:formula1>
             <xm:f>Objects!$A$2:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>D33:D46 D74:D77 D61:D72 D23:D30 D50:D58 D3:D10 D12:D20</xm:sqref>
+          <xm:sqref>D3:D6 D8:D11 D16 D18:D31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C45 C50:C57 C74:C77 C23:C29 C61:C70 C12:C19 C3:C5 C7:C10">
+      <formula1>"id,name,xpath"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Objects!$A$2:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>D33:D46 D74:D77 D61:D72 D23:D30 D50:D58 D12:D20 D3:D5 D7:D10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Settings.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="6915" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="6915" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="228">
   <si>
     <t>textbox</t>
   </si>
@@ -669,6 +669,48 @@
   </si>
   <si>
     <t>.//*[@title='Documents']</t>
+  </si>
+  <si>
+    <t>Favourites</t>
+  </si>
+  <si>
+    <t>Admin Favourites Library</t>
+  </si>
+  <si>
+    <t>.//*[@title='Admin Favourites']</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'_RichHtmlField_displayContent')]</t>
+  </si>
+  <si>
+    <t>(.//input[contains(@id,'DateTimeFieldDate')])[1]</t>
+  </si>
+  <si>
+    <t>Announcement</t>
+  </si>
+  <si>
+    <t>.//*[@title='Announcements']</t>
+  </si>
+  <si>
+    <t>Announcements Library</t>
+  </si>
+  <si>
+    <t>Page Title</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'DropDownChoice') and @title='Location']</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'DropDownChoice') and @title='Category']</t>
+  </si>
+  <si>
+    <t>Show on Homepage?</t>
+  </si>
+  <si>
+    <t>.//*[contains(@id,'BooleanField') and @title='Show on Homepage?']</t>
   </si>
 </sst>
 </file>
@@ -1387,9 +1429,530 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f>E8</f>
+        <v>.//*[contains(@title,'Title')]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6 C22:C35 C17 C8:C10">
+      <formula1>"id,name,xpath"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Objects!$A$2:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D6 D19:D35 D17 D8:D12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1427,7 +1990,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1438,131 +2001,121 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>169</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
-      </c>
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -1571,40 +2124,40 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -1613,124 +2166,79 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
       <c r="E25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="B26" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1739,40 +2247,40 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -1781,44 +2289,595 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
         <v>21</v>
       </c>
-      <c r="E30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>209</v>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="A75:G75"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6 C8:C9 C16 C21:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C47 C52:C59 C76:C79 C25:C31 C63:C72 C14:C21 C3:C5 C7 C9 C11:C12">
       <formula1>"id,name,xpath"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1832,906 +2891,7 @@
           <x14:formula1>
             <xm:f>Objects!$A$2:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D6 D8:D11 D16 D18:D31</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="B56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="B61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="B62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="B68" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="B75" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A6:G6"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C45 C50:C57 C74:C77 C23:C29 C61:C70 C12:C19 C3:C5 C7:C10">
-      <formula1>"id,name,xpath"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Objects!$A$2:$A$100</xm:f>
-          </x14:formula1>
-          <xm:sqref>D33:D46 D74:D77 D61:D72 D23:D30 D50:D58 D12:D20 D3:D5 D7:D10</xm:sqref>
+          <xm:sqref>D35:D48 D76:D79 D63:D74 D25:D32 D52:D60 D14:D22 D3:D5 D7 D9 D11:D12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Settings.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Settings.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="229">
   <si>
     <t>textbox</t>
   </si>
@@ -503,9 +503,6 @@
     <t>new item</t>
   </si>
   <si>
-    <t>.//*[@id='idHomePageNewItem']</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
@@ -711,6 +708,12 @@
   </si>
   <si>
     <t>.//*[contains(@id,'BooleanField') and @title='Show on Homepage?']</t>
+  </si>
+  <si>
+    <t>button_scrollable</t>
+  </si>
+  <si>
+    <t>.//*[@id='idHomePageNewItem']/span[2]</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A38"/>
+  <dimension ref="A2:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1321,6 +1324,16 @@
     <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1353,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1431,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1469,7 +1482,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1480,7 +1493,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1489,12 +1502,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -1503,13 +1516,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1"/>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1532,12 +1545,12 @@
         <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1552,7 +1565,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1561,12 +1574,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1575,15 +1588,15 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1592,12 +1605,12 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1606,12 +1619,12 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -1620,15 +1633,15 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1637,12 +1650,12 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -1651,12 +1664,12 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -1665,12 +1678,12 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -1679,12 +1692,12 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1693,12 +1706,12 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -1707,12 +1720,12 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1721,12 +1734,12 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -1735,12 +1748,12 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -1749,12 +1762,12 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -1763,12 +1776,12 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -1777,12 +1790,12 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1791,12 +1804,12 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1805,7 +1818,7 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1819,12 +1832,12 @@
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -1833,12 +1846,12 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -1847,26 +1860,26 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1875,12 +1888,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
@@ -1889,12 +1902,12 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -1903,12 +1916,12 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
@@ -1917,7 +1930,7 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1966,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2024,12 +2037,12 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2040,7 +2053,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -2049,12 +2062,12 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2065,7 +2078,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -2074,12 +2087,12 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2090,7 +2103,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -2099,7 +2112,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7">
